--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H2">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I2">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J2">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5215465</v>
+        <v>1.2562095</v>
       </c>
       <c r="N2">
-        <v>1.043093</v>
+        <v>2.512419</v>
       </c>
       <c r="O2">
-        <v>0.3993854683363039</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P2">
-        <v>0.3071469942766215</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q2">
-        <v>0.06570364575025001</v>
+        <v>0.28422305231775</v>
       </c>
       <c r="R2">
-        <v>0.262814583001</v>
+        <v>1.136892209271</v>
       </c>
       <c r="S2">
-        <v>0.02988588441166812</v>
+        <v>0.1201890434597738</v>
       </c>
       <c r="T2">
-        <v>0.01748642899392821</v>
+        <v>0.09776163596080849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1259785</v>
+        <v>0.2262545</v>
       </c>
       <c r="H3">
-        <v>0.251957</v>
+        <v>0.452509</v>
       </c>
       <c r="I3">
-        <v>0.07482967403937345</v>
+        <v>0.1204131165461362</v>
       </c>
       <c r="J3">
-        <v>0.05693179265879337</v>
+        <v>0.09803502716436995</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,27 +626,27 @@
         <v>0.007026</v>
       </c>
       <c r="O3">
-        <v>0.001793436954986034</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P3">
-        <v>0.002068861340060323</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q3">
-        <v>0.000295041647</v>
+        <v>0.000529888039</v>
       </c>
       <c r="R3">
-        <v>0.001770249882</v>
+        <v>0.003179328234</v>
       </c>
       <c r="S3">
-        <v>0.0001342023027517714</v>
+        <v>0.0002240730863624182</v>
       </c>
       <c r="T3">
-        <v>0.0001177839848521077</v>
+        <v>0.0002733912035614444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.8414976666666667</v>
+      </c>
+      <c r="H4">
+        <v>2.524493</v>
+      </c>
+      <c r="I4">
+        <v>0.4478468123711794</v>
+      </c>
+      <c r="J4">
+        <v>0.5469255635385413</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.1259785</v>
-      </c>
-      <c r="H4">
-        <v>0.251957</v>
-      </c>
-      <c r="I4">
-        <v>0.07482967403937345</v>
-      </c>
-      <c r="J4">
-        <v>0.05693179265879337</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.781984</v>
+        <v>1.2562095</v>
       </c>
       <c r="N4">
-        <v>2.345952</v>
+        <v>2.512419</v>
       </c>
       <c r="O4">
-        <v>0.5988210947087101</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P4">
-        <v>0.6907841443833183</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q4">
-        <v>0.09851317134399999</v>
+        <v>1.0570973630945</v>
       </c>
       <c r="R4">
-        <v>0.5910790280639999</v>
+        <v>6.342584178567</v>
       </c>
       <c r="S4">
-        <v>0.04480958732495356</v>
+        <v>0.4470134279331383</v>
       </c>
       <c r="T4">
-        <v>0.03932757968001305</v>
+        <v>0.5454003470684766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8414976666666666</v>
+        <v>0.8414976666666667</v>
       </c>
       <c r="H5">
         <v>2.524493</v>
       </c>
       <c r="I5">
-        <v>0.4998392273408557</v>
+        <v>0.4478468123711794</v>
       </c>
       <c r="J5">
-        <v>0.5704303196361888</v>
+        <v>0.5469255635385413</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5215465</v>
+        <v>0.002342</v>
       </c>
       <c r="N5">
-        <v>1.043093</v>
+        <v>0.007026</v>
       </c>
       <c r="O5">
-        <v>0.3993854683363039</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P5">
-        <v>0.3071469942766215</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q5">
-        <v>0.4388801628081667</v>
+        <v>0.001970787535333334</v>
       </c>
       <c r="R5">
-        <v>2.633280976849</v>
+        <v>0.017737087818</v>
       </c>
       <c r="S5">
-        <v>0.1996285239043839</v>
+        <v>0.0008333844380411148</v>
       </c>
       <c r="T5">
-        <v>0.1752059581205078</v>
+        <v>0.001525216470064554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8414976666666666</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H6">
-        <v>2.524493</v>
+        <v>0.04049</v>
       </c>
       <c r="I6">
-        <v>0.4998392273408557</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J6">
-        <v>0.5704303196361888</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.002342</v>
+        <v>1.2562095</v>
       </c>
       <c r="N6">
-        <v>0.007026</v>
+        <v>2.512419</v>
       </c>
       <c r="O6">
-        <v>0.001793436954986034</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P6">
-        <v>0.002068861340060323</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q6">
-        <v>0.001970787535333333</v>
+        <v>0.016954640885</v>
       </c>
       <c r="R6">
-        <v>0.017737087818</v>
+        <v>0.10172784531</v>
       </c>
       <c r="S6">
-        <v>0.0008964301418647563</v>
+        <v>0.007169587595217244</v>
       </c>
       <c r="T6">
-        <v>0.001180141235493564</v>
+        <v>0.00874760201466299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8414976666666666</v>
+        <v>0.01349666666666667</v>
       </c>
       <c r="H7">
-        <v>2.524493</v>
+        <v>0.04049</v>
       </c>
       <c r="I7">
-        <v>0.4998392273408557</v>
+        <v>0.00718295413491305</v>
       </c>
       <c r="J7">
-        <v>0.5704303196361888</v>
+        <v>0.008772064754259779</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.781984</v>
+        <v>0.002342</v>
       </c>
       <c r="N7">
-        <v>2.345952</v>
+        <v>0.007026</v>
       </c>
       <c r="O7">
-        <v>0.5988210947087101</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P7">
-        <v>0.6907841443833183</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q7">
-        <v>0.6580377113706666</v>
+        <v>3.160919333333333E-05</v>
       </c>
       <c r="R7">
-        <v>5.922339402335999</v>
+        <v>0.00028448274</v>
       </c>
       <c r="S7">
-        <v>0.2993142732946071</v>
+        <v>1.336653969580614E-05</v>
       </c>
       <c r="T7">
-        <v>0.3940442202801874</v>
+        <v>2.446273959678787E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4990375</v>
+        <v>0.794913</v>
       </c>
       <c r="H8">
-        <v>0.998075</v>
+        <v>1.589826</v>
       </c>
       <c r="I8">
-        <v>0.296422115348443</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J8">
-        <v>0.225523398666936</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5215465</v>
+        <v>1.2562095</v>
       </c>
       <c r="N8">
-        <v>1.043093</v>
+        <v>2.512419</v>
       </c>
       <c r="O8">
-        <v>0.3993854683363039</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P8">
-        <v>0.3071469942766215</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q8">
-        <v>0.26027126149375</v>
+        <v>0.9985772622735</v>
       </c>
       <c r="R8">
-        <v>1.041085045975</v>
+        <v>3.994309049094</v>
       </c>
       <c r="S8">
-        <v>0.1183866853636758</v>
+        <v>0.4222671067481051</v>
       </c>
       <c r="T8">
-        <v>0.06926883403959762</v>
+        <v>0.343471600903028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4990375</v>
+        <v>0.794913</v>
       </c>
       <c r="H9">
-        <v>0.998075</v>
+        <v>1.589826</v>
       </c>
       <c r="I9">
-        <v>0.296422115348443</v>
+        <v>0.4230543556616057</v>
       </c>
       <c r="J9">
-        <v>0.225523398666936</v>
+        <v>0.3444321220055769</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,27 +998,27 @@
         <v>0.007026</v>
       </c>
       <c r="O9">
-        <v>0.001793436954986034</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P9">
-        <v>0.002068861340060323</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q9">
-        <v>0.001168745825</v>
+        <v>0.001861686246</v>
       </c>
       <c r="R9">
-        <v>0.007012474950000001</v>
+        <v>0.011170117476</v>
       </c>
       <c r="S9">
-        <v>0.0005316143759410306</v>
+        <v>0.0007872489135005445</v>
       </c>
       <c r="T9">
-        <v>0.0004665766407810357</v>
+        <v>0.0009605211025488484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.002823666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.008470999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.001502761286165682</v>
+      </c>
+      <c r="J10">
+        <v>0.001835222537252027</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4990375</v>
-      </c>
-      <c r="H10">
-        <v>0.998075</v>
-      </c>
-      <c r="I10">
-        <v>0.296422115348443</v>
-      </c>
-      <c r="J10">
-        <v>0.225523398666936</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.781984</v>
+        <v>1.2562095</v>
       </c>
       <c r="N10">
-        <v>2.345952</v>
+        <v>2.512419</v>
       </c>
       <c r="O10">
-        <v>0.5988210947087101</v>
+        <v>0.9981391305798769</v>
       </c>
       <c r="P10">
-        <v>0.6907841443833183</v>
+        <v>0.9972112905818542</v>
       </c>
       <c r="Q10">
-        <v>0.3902393404</v>
+        <v>0.0035471168915</v>
       </c>
       <c r="R10">
-        <v>2.3414360424</v>
+        <v>0.021282701349</v>
       </c>
       <c r="S10">
-        <v>0.1775038156088262</v>
+        <v>0.001499964843642511</v>
       </c>
       <c r="T10">
-        <v>0.1557879879865574</v>
+        <v>0.001830104634877999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.206538</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H11">
-        <v>0.619614</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I11">
-        <v>0.1226810226883485</v>
+        <v>0.001502761286165682</v>
       </c>
       <c r="J11">
-        <v>0.1400069685560854</v>
+        <v>0.001835222537252027</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.5215465</v>
+        <v>0.002342</v>
       </c>
       <c r="N11">
-        <v>1.043093</v>
+        <v>0.007026</v>
       </c>
       <c r="O11">
-        <v>0.3993854683363039</v>
+        <v>0.001860869420123054</v>
       </c>
       <c r="P11">
-        <v>0.3071469942766215</v>
+        <v>0.002788709418145663</v>
       </c>
       <c r="Q11">
-        <v>0.107719171017</v>
+        <v>6.613027333333333E-06</v>
       </c>
       <c r="R11">
-        <v>0.646315026102</v>
+        <v>5.9517246E-05</v>
       </c>
       <c r="S11">
-        <v>0.0489970177023628</v>
+        <v>2.796442523170507E-06</v>
       </c>
       <c r="T11">
-        <v>0.04300271956978307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.206538</v>
-      </c>
-      <c r="H12">
-        <v>0.619614</v>
-      </c>
-      <c r="I12">
-        <v>0.1226810226883485</v>
-      </c>
-      <c r="J12">
-        <v>0.1400069685560854</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.002342</v>
-      </c>
-      <c r="N12">
-        <v>0.007026</v>
-      </c>
-      <c r="O12">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P12">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q12">
-        <v>0.000483711996</v>
-      </c>
-      <c r="R12">
-        <v>0.004353407964</v>
-      </c>
-      <c r="S12">
-        <v>0.0002200206797647643</v>
-      </c>
-      <c r="T12">
-        <v>0.0002896550045847262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.206538</v>
-      </c>
-      <c r="H13">
-        <v>0.619614</v>
-      </c>
-      <c r="I13">
-        <v>0.1226810226883485</v>
-      </c>
-      <c r="J13">
-        <v>0.1400069685560854</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.781984</v>
-      </c>
-      <c r="N13">
-        <v>2.345952</v>
-      </c>
-      <c r="O13">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P13">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q13">
-        <v>0.161509411392</v>
-      </c>
-      <c r="R13">
-        <v>1.453584702528</v>
-      </c>
-      <c r="S13">
-        <v>0.07346398430622096</v>
-      </c>
-      <c r="T13">
-        <v>0.09671459398171757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.010485</v>
-      </c>
-      <c r="H14">
-        <v>0.031455</v>
-      </c>
-      <c r="I14">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J14">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.5215465</v>
-      </c>
-      <c r="N14">
-        <v>1.043093</v>
-      </c>
-      <c r="O14">
-        <v>0.3993854683363039</v>
-      </c>
-      <c r="P14">
-        <v>0.3071469942766215</v>
-      </c>
-      <c r="Q14">
-        <v>0.005468415052500001</v>
-      </c>
-      <c r="R14">
-        <v>0.032810490315</v>
-      </c>
-      <c r="S14">
-        <v>0.002487356954213142</v>
-      </c>
-      <c r="T14">
-        <v>0.002183053552804692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.010485</v>
-      </c>
-      <c r="H15">
-        <v>0.031455</v>
-      </c>
-      <c r="I15">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J15">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.002342</v>
-      </c>
-      <c r="N15">
-        <v>0.007026</v>
-      </c>
-      <c r="O15">
-        <v>0.001793436954986034</v>
-      </c>
-      <c r="P15">
-        <v>0.002068861340060323</v>
-      </c>
-      <c r="Q15">
-        <v>2.455587E-05</v>
-      </c>
-      <c r="R15">
-        <v>0.00022100283</v>
-      </c>
-      <c r="S15">
-        <v>1.116945466371106E-05</v>
-      </c>
-      <c r="T15">
-        <v>1.470447434888909E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.010485</v>
-      </c>
-      <c r="H16">
-        <v>0.031455</v>
-      </c>
-      <c r="I16">
-        <v>0.006227960582979085</v>
-      </c>
-      <c r="J16">
-        <v>0.007107520481996315</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.781984</v>
-      </c>
-      <c r="N16">
-        <v>2.345952</v>
-      </c>
-      <c r="O16">
-        <v>0.5988210947087101</v>
-      </c>
-      <c r="P16">
-        <v>0.6907841443833183</v>
-      </c>
-      <c r="Q16">
-        <v>0.008199102240000001</v>
-      </c>
-      <c r="R16">
-        <v>0.07379192016000001</v>
-      </c>
-      <c r="S16">
-        <v>0.003729434174102232</v>
-      </c>
-      <c r="T16">
-        <v>0.004909762454842734</v>
+        <v>5.117902374027909E-06</v>
       </c>
     </row>
   </sheetData>
